--- a/icd_files/23637.xlsx
+++ b/icd_files/23637.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7770ED2-46A4-4F6D-B2F4-DE17EF416645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC1154-08DE-4D4C-A7E6-4D7AE2D6E827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="407">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -780,13 +780,70 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Phenazopyridine HCl</t>
+  </si>
+  <si>
+    <t>Hydralazine HCl</t>
+  </si>
+  <si>
+    <t>Alteplase (Catheter Clearance)</t>
+  </si>
+  <si>
+    <t>Captopril</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Isotonic Sodium Chloride</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Octreotide Acetate</t>
+  </si>
+  <si>
+    <t>Vancomycin HCl</t>
+  </si>
+  <si>
+    <t>Scopolamine Patch</t>
+  </si>
+  <si>
     <t>Artificial Tears</t>
   </si>
   <si>
-    <t>Octreotide Acetate</t>
-  </si>
-  <si>
-    <t>Captopril</t>
+    <t>Dextrose 5%</t>
+  </si>
+  <si>
+    <t>Nadolol</t>
+  </si>
+  <si>
+    <t>Albuterol Neb Soln</t>
+  </si>
+  <si>
+    <t>Sodium Chloride Nasal</t>
+  </si>
+  <si>
+    <t>Nitroglycerin Oint. 2%</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Lactulose</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Nitroglycerin</t>
   </si>
   <si>
     <t>14:00</t>
@@ -843,19 +900,76 @@
     <t>00:00</t>
   </si>
   <si>
+    <t>600 ml</t>
+  </si>
+  <si>
     <t>1-2 UNIT</t>
   </si>
   <si>
-    <t>600 ml</t>
+    <t>100 ml</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>1-2 SPRY</t>
   </si>
   <si>
     <t>17:00</t>
   </si>
   <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
+    <t>250 ml</t>
+  </si>
+  <si>
+    <t>250 BTL</t>
+  </si>
+  <si>
+    <t>50 ml</t>
+  </si>
+  <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
+    <t>3 ml</t>
+  </si>
+  <si>
+    <t>1000 BTL</t>
+  </si>
+  <si>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>100 BTL</t>
+  </si>
+  <si>
+    <t>30 VIAL</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
     <t>50 TAB</t>
   </si>
   <si>
+    <t>500 ml</t>
+  </si>
+  <si>
     <t>75 TAB</t>
+  </si>
+  <si>
+    <t>200 ml</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>1 PTCH</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -4496,7 +4610,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000000-6204-419C-A190-E607CBB1E699}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5908,7 +6022,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000001-6204-419C-A190-E607CBB1E699}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7320,7 +7434,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000002-6204-419C-A190-E607CBB1E699}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8492,7 +8606,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000003-6204-419C-A190-E607CBB1E699}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9847,7 +9961,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000004-6204-419C-A190-E607CBB1E699}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10776,7 +10890,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000005-6204-419C-A190-E607CBB1E699}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11556,7 +11670,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000006-6204-419C-A190-E607CBB1E699}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12330,7 +12444,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000007-6204-419C-A190-E607CBB1E699}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13107,7 +13221,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000008-6204-419C-A190-E607CBB1E699}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13550,7 +13664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182F6E27-D832-48DF-9C9C-3FDD199D2F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54A63BF-02FA-4880-826E-CA7DA390F1D3}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -13575,7 +13689,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -13588,7 +13702,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -13601,7 +13715,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -13614,7 +13728,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -13627,27 +13741,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -13675,7 +13789,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -13703,11 +13817,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -13730,7 +13844,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13767,7 +13881,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -13790,14 +13904,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -13820,14 +13934,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -13850,14 +13964,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -13880,14 +13994,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -13910,16 +14024,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -13942,14 +14056,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -13972,10 +14086,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -13983,7 +14097,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -13995,7 +14109,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -14018,7 +14132,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -14034,11 +14148,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -14061,7 +14175,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -14079,7 +14193,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -14102,7 +14216,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -14121,7 +14235,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -14144,10 +14258,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -14165,7 +14279,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -14188,52 +14302,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -14256,53 +14370,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -14325,43 +14439,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -14369,7 +14483,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -14392,43 +14506,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -14436,7 +14550,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -14459,43 +14573,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -14503,7 +14617,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -14526,43 +14640,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -14570,7 +14684,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -14593,43 +14707,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -14637,7 +14751,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -14660,43 +14774,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -14704,7 +14818,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -14727,43 +14841,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -14771,7 +14885,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -14794,43 +14908,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -14838,7 +14952,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -14861,43 +14975,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -14905,7 +15019,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -14928,43 +15042,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -14972,7 +15086,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -14995,43 +15109,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -15039,7 +15153,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -15062,7 +15176,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -15075,10 +15189,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -15086,7 +15200,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -15109,14 +15223,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -15131,7 +15245,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -15154,7 +15268,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -15174,7 +15288,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -15197,7 +15311,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -15217,7 +15331,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -15240,7 +15354,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -15258,11 +15372,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -15285,14 +15399,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -15315,14 +15429,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -15345,14 +15459,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -15375,14 +15489,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -15405,14 +15519,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -15435,14 +15549,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -15465,10 +15579,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -15485,7 +15599,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -15508,7 +15622,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -15526,7 +15640,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -15549,7 +15663,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -15567,7 +15681,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -15590,14 +15704,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -15620,14 +15734,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -15650,24 +15764,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -15690,7 +15804,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -15699,7 +15813,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -15722,14 +15836,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -15737,7 +15851,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -15760,7 +15874,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -15769,7 +15883,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -15792,14 +15906,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -15807,7 +15921,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -15830,7 +15944,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -15839,7 +15953,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -15862,24 +15976,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -15902,7 +16016,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -15911,7 +16025,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -15934,22 +16048,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -15957,7 +16071,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -15980,7 +16094,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -15993,7 +16107,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -16016,32 +16130,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -16064,7 +16178,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -16073,7 +16187,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -16096,14 +16210,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -16111,7 +16225,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -16134,14 +16248,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -16164,12 +16278,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -16197,7 +16311,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -16224,13 +16338,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -16258,7 +16372,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -16370,7 +16484,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -16398,7 +16512,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -16426,7 +16540,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -21638,13 +21752,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:BK38"/>
+  <dimension ref="A30:BN57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>236</v>
       </c>
@@ -21652,7 +21766,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>238</v>
       </c>
@@ -21789,10 +21903,10 @@
         <v>245</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AV31" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW31" s="1" t="s">
         <v>246</v>
@@ -21807,13 +21921,13 @@
         <v>246</v>
       </c>
       <c r="BA31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BB31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BD31" s="1" t="s">
         <v>247</v>
@@ -21828,220 +21942,238 @@
         <v>247</v>
       </c>
       <c r="BH31" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BI31" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BJ31" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BK31" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BL31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="C32" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="D32" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="E32" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="F32" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="H32" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="I32" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="J32" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="O32" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="P32" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="Q32" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="R32" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="S32" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="T32" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="U32" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="V32" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="W32" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="X32" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="Y32" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="Z32" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="AA32" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="AB32" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="AC32" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="AD32" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="AE32" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="AF32" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="AH32" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="AI32" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="AJ32" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="AK32" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AL32" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="AN32" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="AO32" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="AP32" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="AQ32" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="AR32" t="s">
+        <v>282</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU32" t="s">
         <v>275</v>
       </c>
-      <c r="AS32" t="s">
-        <v>256</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>259</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>265</v>
-      </c>
       <c r="AV32" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AW32" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="AX32" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="AY32" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="AZ32" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="BA32" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="BB32" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="BC32" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="BD32" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="BE32" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="BF32" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="BG32" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="BH32" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="BI32" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="BJ32" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="BK32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>285</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>251</v>
       </c>
@@ -22153,12 +22285,6 @@
       <c r="AK35">
         <v>15</v>
       </c>
-      <c r="AN35">
-        <v>15</v>
-      </c>
-      <c r="AO35">
-        <v>15</v>
-      </c>
       <c r="AP35">
         <v>15</v>
       </c>
@@ -22178,82 +22304,300 @@
         <v>15</v>
       </c>
       <c r="AV35">
-        <v>14</v>
-      </c>
-      <c r="AW35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY35">
         <v>14</v>
       </c>
       <c r="AZ35">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="BA35">
+        <v>14</v>
       </c>
       <c r="BB35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC35">
         <v>13</v>
       </c>
-      <c r="BD35">
+      <c r="BE35">
+        <v>12</v>
+      </c>
+      <c r="BF35">
         <v>13</v>
-      </c>
-      <c r="BE35">
-        <v>13</v>
-      </c>
-      <c r="BF35">
-        <v>14</v>
       </c>
       <c r="BG35">
         <v>13</v>
       </c>
+      <c r="BH35">
+        <v>13</v>
+      </c>
       <c r="BI35">
+        <v>14</v>
+      </c>
+      <c r="BJ35">
         <v>13</v>
       </c>
-      <c r="BJ35">
+      <c r="BL35">
+        <v>13</v>
+      </c>
+      <c r="BM35">
         <v>15</v>
       </c>
-      <c r="BK35">
+      <c r="BN35">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AL36" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="AW36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AL37" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>274</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BD37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BA38" t="s">
-        <v>276</v>
-      </c>
-      <c r="BH38" t="s">
-        <v>277</v>
+      <c r="BD38" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>310</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>300</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>302</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BK43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>292</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BK45" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BK46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>294</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>296</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>297</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/23637.xlsx
+++ b/icd_files/23637.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7770ED2-46A4-4F6D-B2F4-DE17EF416645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34CBB37-6071-4749-ACB6-256F0B90F174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="407">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -780,13 +780,70 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Phenazopyridine HCl</t>
+  </si>
+  <si>
+    <t>Hydralazine HCl</t>
+  </si>
+  <si>
+    <t>Alteplase (Catheter Clearance)</t>
+  </si>
+  <si>
+    <t>Captopril</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Isotonic Sodium Chloride</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Octreotide Acetate</t>
+  </si>
+  <si>
+    <t>Vancomycin HCl</t>
+  </si>
+  <si>
+    <t>Scopolamine Patch</t>
+  </si>
+  <si>
     <t>Artificial Tears</t>
   </si>
   <si>
-    <t>Octreotide Acetate</t>
-  </si>
-  <si>
-    <t>Captopril</t>
+    <t>Dextrose 5%</t>
+  </si>
+  <si>
+    <t>Nadolol</t>
+  </si>
+  <si>
+    <t>Albuterol Neb Soln</t>
+  </si>
+  <si>
+    <t>Sodium Chloride Nasal</t>
+  </si>
+  <si>
+    <t>Nitroglycerin Oint. 2%</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Lactulose</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Nitroglycerin</t>
   </si>
   <si>
     <t>14:00</t>
@@ -843,19 +900,76 @@
     <t>00:00</t>
   </si>
   <si>
+    <t>600 ml</t>
+  </si>
+  <si>
     <t>1-2 UNIT</t>
   </si>
   <si>
-    <t>600 ml</t>
+    <t>100 ml</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>1-2 SPRY</t>
   </si>
   <si>
     <t>17:00</t>
   </si>
   <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
+    <t>250 ml</t>
+  </si>
+  <si>
+    <t>250 BTL</t>
+  </si>
+  <si>
+    <t>50 ml</t>
+  </si>
+  <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
+    <t>3 ml</t>
+  </si>
+  <si>
+    <t>1000 BTL</t>
+  </si>
+  <si>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>100 BTL</t>
+  </si>
+  <si>
+    <t>30 VIAL</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
     <t>50 TAB</t>
   </si>
   <si>
+    <t>500 ml</t>
+  </si>
+  <si>
     <t>75 TAB</t>
+  </si>
+  <si>
+    <t>200 ml</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>1 PTCH</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -4496,7 +4610,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000000-21AD-47D7-8C6C-D14303B8AF4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5908,7 +6022,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000001-21AD-47D7-8C6C-D14303B8AF4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7320,7 +7434,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000002-21AD-47D7-8C6C-D14303B8AF4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8492,7 +8606,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000003-21AD-47D7-8C6C-D14303B8AF4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9847,7 +9961,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000004-21AD-47D7-8C6C-D14303B8AF4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10776,7 +10890,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000005-21AD-47D7-8C6C-D14303B8AF4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11556,7 +11670,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000006-21AD-47D7-8C6C-D14303B8AF4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12330,7 +12444,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000007-21AD-47D7-8C6C-D14303B8AF4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13107,7 +13221,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-5CA0-4AAF-9ACC-013A4DBED249}"/>
+              <c16:uniqueId val="{00000008-21AD-47D7-8C6C-D14303B8AF4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13550,7 +13664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182F6E27-D832-48DF-9C9C-3FDD199D2F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49CDCC6-2AD4-4666-B55D-7DCA22074ED7}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -13575,7 +13689,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -13588,7 +13702,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -13601,7 +13715,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -13614,7 +13728,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -13627,27 +13741,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -13675,7 +13789,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -13703,11 +13817,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -13730,7 +13844,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13767,7 +13881,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -13790,14 +13904,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -13820,14 +13934,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -13850,14 +13964,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -13880,14 +13994,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -13910,16 +14024,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -13942,14 +14056,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -13972,10 +14086,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -13983,7 +14097,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -13995,7 +14109,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -14018,7 +14132,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -14034,11 +14148,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -14061,7 +14175,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -14079,7 +14193,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -14102,7 +14216,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -14121,7 +14235,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -14144,10 +14258,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -14165,7 +14279,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -14188,52 +14302,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -14256,53 +14370,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -14325,43 +14439,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -14369,7 +14483,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -14392,43 +14506,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -14436,7 +14550,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -14459,43 +14573,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -14503,7 +14617,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -14526,43 +14640,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -14570,7 +14684,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -14593,43 +14707,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -14637,7 +14751,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -14660,43 +14774,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -14704,7 +14818,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -14727,43 +14841,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -14771,7 +14885,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -14794,43 +14908,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -14838,7 +14952,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -14861,43 +14975,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -14905,7 +15019,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -14928,43 +15042,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -14972,7 +15086,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -14995,43 +15109,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -15039,7 +15153,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -15062,7 +15176,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -15075,10 +15189,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -15086,7 +15200,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -15109,14 +15223,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -15131,7 +15245,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -15154,7 +15268,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -15174,7 +15288,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -15197,7 +15311,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -15217,7 +15331,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -15240,7 +15354,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -15258,11 +15372,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -15285,14 +15399,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -15315,14 +15429,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -15345,14 +15459,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -15375,14 +15489,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -15405,14 +15519,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -15435,14 +15549,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -15465,10 +15579,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -15485,7 +15599,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -15508,7 +15622,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -15526,7 +15640,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -15549,7 +15663,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -15567,7 +15681,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -15590,14 +15704,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -15620,14 +15734,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -15650,24 +15764,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -15690,7 +15804,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -15699,7 +15813,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -15722,14 +15836,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -15737,7 +15851,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -15760,7 +15874,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -15769,7 +15883,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -15792,14 +15906,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -15807,7 +15921,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -15830,7 +15944,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -15839,7 +15953,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -15862,24 +15976,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -15902,7 +16016,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -15911,7 +16025,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -15934,22 +16048,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -15957,7 +16071,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -15980,7 +16094,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -15993,7 +16107,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -16016,32 +16130,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -16064,7 +16178,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -16073,7 +16187,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -16096,14 +16210,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -16111,7 +16225,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -16134,14 +16248,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -16164,12 +16278,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -16197,7 +16311,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -16224,13 +16338,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -16258,7 +16372,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -16370,7 +16484,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -16398,7 +16512,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -16426,7 +16540,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -21638,13 +21752,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:BK38"/>
+  <dimension ref="A30:BN57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>236</v>
       </c>
@@ -21652,7 +21766,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>238</v>
       </c>
@@ -21789,10 +21903,10 @@
         <v>245</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AV31" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW31" s="1" t="s">
         <v>246</v>
@@ -21807,13 +21921,13 @@
         <v>246</v>
       </c>
       <c r="BA31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BB31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BD31" s="1" t="s">
         <v>247</v>
@@ -21828,220 +21942,238 @@
         <v>247</v>
       </c>
       <c r="BH31" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BI31" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BJ31" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BK31" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BL31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="C32" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="D32" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="E32" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="F32" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="H32" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="I32" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="J32" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="O32" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="P32" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="Q32" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="R32" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="S32" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="T32" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="U32" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="V32" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="W32" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="X32" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="Y32" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="Z32" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="AA32" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="AB32" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="AC32" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="AD32" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="AE32" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="AF32" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="AH32" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="AI32" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="AJ32" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="AK32" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AL32" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="AN32" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="AO32" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="AP32" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="AQ32" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="AR32" t="s">
+        <v>282</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU32" t="s">
         <v>275</v>
       </c>
-      <c r="AS32" t="s">
-        <v>256</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>259</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>265</v>
-      </c>
       <c r="AV32" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AW32" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="AX32" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="AY32" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="AZ32" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="BA32" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="BB32" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="BC32" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="BD32" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="BE32" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="BF32" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="BG32" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="BH32" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="BI32" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="BJ32" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="BK32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>284</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>285</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>251</v>
       </c>
@@ -22153,12 +22285,6 @@
       <c r="AK35">
         <v>15</v>
       </c>
-      <c r="AN35">
-        <v>15</v>
-      </c>
-      <c r="AO35">
-        <v>15</v>
-      </c>
       <c r="AP35">
         <v>15</v>
       </c>
@@ -22178,82 +22304,300 @@
         <v>15</v>
       </c>
       <c r="AV35">
-        <v>14</v>
-      </c>
-      <c r="AW35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY35">
         <v>14</v>
       </c>
       <c r="AZ35">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="BA35">
+        <v>14</v>
       </c>
       <c r="BB35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC35">
         <v>13</v>
       </c>
-      <c r="BD35">
+      <c r="BE35">
+        <v>12</v>
+      </c>
+      <c r="BF35">
         <v>13</v>
-      </c>
-      <c r="BE35">
-        <v>13</v>
-      </c>
-      <c r="BF35">
-        <v>14</v>
       </c>
       <c r="BG35">
         <v>13</v>
       </c>
+      <c r="BH35">
+        <v>13</v>
+      </c>
       <c r="BI35">
+        <v>14</v>
+      </c>
+      <c r="BJ35">
         <v>13</v>
       </c>
-      <c r="BJ35">
+      <c r="BL35">
+        <v>13</v>
+      </c>
+      <c r="BM35">
         <v>15</v>
       </c>
-      <c r="BK35">
+      <c r="BN35">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AL36" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="AW36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AL37" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>274</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BD37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BA38" t="s">
-        <v>276</v>
-      </c>
-      <c r="BH38" t="s">
-        <v>277</v>
+      <c r="BD38" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>310</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>300</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>302</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BK43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>292</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BK45" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BK46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>294</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>296</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>297</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
